--- a/팀작업/240320_리서치_네잎클로버.xlsx
+++ b/팀작업/240320_리서치_네잎클로버.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G23\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ayj\Group\팀작업\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7743FA-AE35-4721-989F-FF75130A6042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F82229C-AC05-4B4A-B6DD-95AD9E65E6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4A0A1EC7-B2D4-40E2-83B9-9DB9FC1CCD3A}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="110">
   <si>
     <t>2. 메인페이지의 단순함. 메인이 되는 전시의 임팩트 부족. 갤러리의 아이덴테티 부족</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1687,9 +1687,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>타깃</t>
-  </si>
-  <si>
     <t>전시 정보를 얻고자하는 관람자</t>
   </si>
   <si>
@@ -2328,16 +2325,7 @@
     <t>작품을 구매하기 위한 소비자(주로 여성 30~40대)</t>
   </si>
   <si>
-    <t>단순한 나열식 구조로 정보전달에 어려움이 있고 지루함을 유발한다.</t>
-  </si>
-  <si>
     <t>단순한 폰트와 작은 크기로 가독성이 떨어진다.</t>
-  </si>
-  <si>
-    <t>예약할 수 있어 경로를 찾기가 어렵다.</t>
-  </si>
-  <si>
-    <t>작가에 대한 설명과 정보, 다른 활동에 대한 연계성 부족.</t>
   </si>
   <si>
     <t>지도 기반의 앱으로 글로벌 추천 전시 서비스를 제공하고 있으며, 모든 위치에서 지도로 전시 위치를 확인할 수 있다. 예매하기 버튼이 없으며, 원하는 전시회를 예매하거나 정보를 좀 더 알고 싶다면 외부 링크로 연결해야 하는 단점이 있다. 리뷰란이 따로 있어 다른 사람들의 전시회 후기를 볼 수 있고, 대한민국 그리고 뉴욕과 런던의 후기도 볼 수 있다.</t>
@@ -2399,40 +2387,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 현재 위치정보를 기반으로 하여 주변에 관람 가능한 전시회에 관련한 정보 제공
-2. 내가 아카이빙 하고 싶은 작품, 작가, 전시관 설정 가능
-3. 작품의 사조, 분야, 표현법, 장르 등의 필터로 분류하여 한눈에 훑어볼 수 있다.
-4. 다양한 sns을 활용하여 소통창구를 적극 활용</t>
-  </si>
-  <si>
-    <t>1. 사용자의 관심과 취향에 맞는 선택지를 제공한다.
-2. 사용자가 다양한 아티클을 통해 관련 산업에 대한 정보를 얻을 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 어플 자체적인 예약 시스템이 없고 외부링크로 이어져있어 사용자에게 번거로움을 준다.
-2. 전시 사진 및 설명 부족 &amp; 가독성이 떨어진다.
-3. 일부 사용자들은 전시회 정보를 검색하고 예약하는 것에 대한 기술적 혹은 인터넷 접근성의 한계를 가질 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 지도 기반의 전시정보를 제공하여 위치별로 쉽게 전 세계 전시회 장소 및 
-정보를 알 수 있다.
-2. 주변 전시와 이벤트도 같이 나와 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 수도권 제외 지역적 한계로 인한 전시회 정보
- 및 접근성이 부족하다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 메인 페이지가 전반적으로 직관적이고 아이콘 활용으로 카테고리 구별이
-깔끔해 보기 편하다. 
-2. 원하는 전시회 정보를 바로 확인할 수 있고, 예약 시스템이 잘되어있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대림 미술관과 디뮤지엄을 방문하는 관람객.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2444,53 +2398,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지도 기반으로 전시정보를 제공하는 모바일 앱전시에 대해 사전 정보가 없거나, 미술 작품에 대해 잘 몰라도 손쉽게 아트가이드를 통해 전시 관람을
-즐길 수 있도록 도와준다  -아티패츠 박원재 대표-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 시기별, 취향별, 지역별, 전시관련 정보를 카테고리별로 효율적으로 나누어
-사용자에게 편리성 제공
-2. 전시, 작품, 작가에 대한 다양한 아티클 제공
-3. 개인화 서비스 제공 - 취향분석, 컬렉션등의 서비스 제공
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 다양한  이벤트 및 쿠폰 서비스 도입되었다.
-2. 전시 외에 교육 ,공연 등 다양한 프로그램 정보 및 예약이 가능하다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 메인 이미지의 터치 영역 가이드가 폰트에만 집중되어 있어
-사용자에게 불편함을 준다.
-2. 회원가입이 복잡한 것에 비해 모든 서비스가 로그인 후에
-이용이 가능하다.
-3. 진행 중인 전시회에 관련된 설명이 부족하다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>타 앱에 비해 한정된 장소로 인해 전시회의 종류가
 부족하여 장기 사용자를 만들기 어렵다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 다른 전시회 관련 어플리케이션과의 경쟁이 치열하며,
-시장 점유율을 유지하기 위해 지속적인
-혁신과 개선이 필요하다.
-2. 전시회 어플 외에도 온라인 예술 플랫폼들과의 경쟁이
-치열하며, 이를 대비하기 위해 고유한 가치 제안을
-강조해야 한다.
-3. 민감한 전시 정보의 보안 문제에 대한 대비가 필요하다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 사용자의 취향분석을 통해 가이드의 역할을 해준다.
-2.  박물관, 갤러리, 예술 단체 등과의 협력을 통해 전시 정보를 보다 다양하고 풍부하게
-제공할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 디자인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2500,30 +2412,11 @@
   </si>
   <si>
     <t>선정 이유</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 해외 전시관의 위치 및 전시회에 대한 설명이 나와있어 위치기반 서비스가 최적화되어
-있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. 전시 예매하기에 대한 내용이 없고 외부링크로 연결되어 있어 전시 예매를 원하거나 부가적인 정보를 알고 싶으면 따로
 알아봐야 하는 번거로움을 가지고 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 전시 작품에 관한 음성 설명 가이드
-제공을 하고 있다.
-2. 티켓 선물하기 등 공유 서비스가
-잘 되어었다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 멤버십 운영이 조직적으로 잘 구성되어있다.(등급제 운영)
-2. 오디오 가이드를 적극적으로 활용한다.
-3. 전시회 이미지를 슬라이드로 구성해, 사용자들의 편리성을
-추구한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2534,37 +2427,109 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 지도 기반의 앱으로 글로벌 추천 전시 서비스를 제공하고
-있으며, 모든 위치에서 지도로 전시 위치를 확인할 수 있다. 
-2. 예매하기 버튼이 없으며, 원하는 전시회를 예매하거나
-정보를 좀 더 알고 싶다면 외부 링크로 연결해야 하는 단점이
-있다.
-3. 리뷰란이 따로 있어 다른 사람들의 전시회 후기를 볼 수 있고,  대한민국 그리고 뉴욕과 런던의 후기도 볼 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 갤러리 소스들의 디자인이 마음에 들었으나, 예약을 할 수 있는 시스템이
-없어서 추가하여 리뉴얼 하게 되었다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 메인페이지의 단순함. 메인이 되는 전시의 임팩트 부족. 갤러리의
-아이덴테티가 부족하다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 전시회의 다양성과 접근성이 과거에 비해 좋아진 것에 반해 전시회의
-예매 및 정보 확인의 번거로움이 많다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>웹사이트 내부에 예약과 관련된 정보(장소,가격,이용시간,수칙 등)와
-시스템이 없고 외부 사이트(네이버 예약,인스타그램)만을 이용하여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전시 사진 외에 컬러감을 사용하지 않아 작품들의 정체성을
 활용하지 못했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹사이트 내부에 예약과 관련된 정보가 없고 외부 사이트
+(네이버 예약,인스타그램)만을 이용하여
+예약할 수 있어 경로를 찾기가 어렵다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 어플 자체적인 예약 시스템이 없고 외부링크로 이어져있어 사용자에게 번거로움을 준다.
+2. 전시 사진 및 설명 부족 &amp; 가독성이 떨어진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 전시회 어플 외에도 온라인 예술 플랫폼들과의 경쟁이
+치열하며, 이를 대비하기 위해 고유한 가치 제안을
+강조해야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관람자 : 예약시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작가 : 문의글/게시판을 이용해 대관 예약 (날짜 중요)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 메인 페이지가 전반적으로 직관적이고 아이콘 활용으로 카테고리 구별이
+깔끔해 보기 편하다. 
+2. 원하는 전시회 정보를 바로 확인할 수 있고, 예약 시스템이 한 페이지 안에 구성되어 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약시스템이라는 과업이 주어지고 주제를 찾다가 팀원 모두
+디자인에 관심이 있다는 것을 중점으로 미술관을 주제로 정하게 되었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 티켓 선물하기 등 공유 서비스가
+잘 되어었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 메인 페이지에 전시에 관련된 전시중, 마감,무료,예정이 카테고리로 표시되어있다.
+2. 주변 전시와 이벤트도 같이 나와 있다.</t>
+  </si>
+  <si>
+    <t>1. 리뷰카테고리가 따로 나와있어 한눈에 확인이 가능하다.</t>
+  </si>
+  <si>
+    <t>1. 전시회나 새로운 정보들이 지속적으로 생긴다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 사용자의 관심과 취향에 맞는 선택지를 제공한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 내가 아카이빙 하고 싶은 작품, 작가, 전시관 설정 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 달력에서 기간을 설정하여 전시중인 전시를 확인 할 수 있다. 
+2. 리뷰란이 따로 있어 다른 사람들의 전시회 후기를 볼 수 있고,  대한민국 그리고 뉴욕과 런던의 후기도 볼 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 사전 정보가 없고 미술 작품에 대해 잘 몰라도 손쉽게 아트가이드를 통해 전시 관람을 즐길 수 있도록 도와준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 메인 이미지의 터치 영역 가이드가 폰트에만 집중되어 있어
+사용자에게 불편함을 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 전시회 이미지를 슬라이드로 구성해, 사용자들의 편리성을
+추구한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 전시, 작품, 작가에 대한 다양한 아티클 제공
+2. 개인화 서비스 제공 - 취향분석, 컬렉션등의 서비스 제공
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 작품사진 카테고리가 따로 나와있어 다양한 작품들을 한눈에 확인이
+가능하다.
+2. 메인페이지의 가이드가 잘 나와있어서 사용자에게 편리성을 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 전시 외에 교육 ,공연 등 다양한 프로그램 정보 및 예약이 가능하다.
+2 . 한 눈에 들어오는 직관적이 디자인.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2917,7 +2882,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3086,6 +3051,9 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3131,8 +3099,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3377,15 +3345,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1943101</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>1352551</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4629150</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>4038600</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3413,7 +3381,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2628901" y="7505700"/>
+          <a:off x="2038351" y="6867525"/>
           <a:ext cx="2686049" cy="1381125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3736,7 +3704,7 @@
   <dimension ref="B2:AA98"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C5"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3761,7 +3729,7 @@
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.3">
@@ -3773,42 +3741,42 @@
       <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
@@ -3819,20 +3787,20 @@
       <c r="C11" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
@@ -3854,42 +3822,42 @@
       <c r="D16" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="56" t="s">
+      <c r="E16" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
       <c r="O18" t="s">
         <v>1</v>
       </c>
@@ -3898,28 +3866,28 @@
       <c r="D20" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="56" t="s">
+      <c r="E20" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
@@ -3944,7 +3912,7 @@
     <row r="24" spans="2:21" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="19"/>
       <c r="C24" s="18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E24" s="29"/>
       <c r="F24" s="29"/>
@@ -4140,7 +4108,7 @@
         <v>32</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F34" s="29"/>
       <c r="G34" s="29"/>
@@ -4163,7 +4131,7 @@
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
       <c r="E35" s="29" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F35" s="29"/>
       <c r="G35" s="29"/>
@@ -4209,7 +4177,7 @@
         <v>35</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F37" s="29"/>
       <c r="G37" s="29"/>
@@ -4232,7 +4200,7 @@
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
       <c r="E38" s="29" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F38" s="29"/>
       <c r="G38" s="29"/>
@@ -4255,7 +4223,7 @@
       <c r="C39" s="27"/>
       <c r="D39" s="27"/>
       <c r="E39" s="29" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F39" s="29"/>
       <c r="G39" s="29"/>
@@ -4299,7 +4267,7 @@
         <v>38</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F41" s="29"/>
       <c r="G41" s="29"/>
@@ -4322,7 +4290,7 @@
       <c r="C42" s="27"/>
       <c r="D42" s="27"/>
       <c r="E42" s="29" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F42" s="29"/>
       <c r="G42" s="29"/>
@@ -4368,7 +4336,7 @@
         <v>39</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F44" s="29"/>
       <c r="G44" s="29"/>
@@ -5614,13 +5582,13 @@
         <v>35</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C20" s="4"/>
       <c r="E20" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="3:5" hidden="1" x14ac:dyDescent="0.3">
@@ -5640,13 +5608,13 @@
         <v>38</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C24" s="4"/>
       <c r="E24" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.3">
@@ -5709,18 +5677,18 @@
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="59"/>
-      <c r="C2" s="62" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="63" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="60"/>
-      <c r="C3" s="63"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="64"/>
     </row>
     <row r="4" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="61"/>
-      <c r="C4" s="64"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="65"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="2"/>
@@ -5759,26 +5727,26 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="68" t="s">
-        <v>70</v>
+      <c r="D10" s="69" t="s">
+        <v>66</v>
       </c>
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="69"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="70"/>
       <c r="E11" s="13"/>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="70"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="71"/>
       <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5795,7 +5763,7 @@
         <v>47</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E14" s="10"/>
     </row>
@@ -5840,51 +5808,51 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C20" s="2"/>
-      <c r="D20" s="59"/>
+      <c r="D20" s="60"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C21" s="2"/>
-      <c r="D21" s="60"/>
+      <c r="D21" s="61"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C22" s="2"/>
-      <c r="D22" s="60"/>
+      <c r="D22" s="61"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C23" s="2"/>
-      <c r="D23" s="60"/>
+      <c r="D23" s="61"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C24" s="2"/>
-      <c r="D24" s="60"/>
+      <c r="D24" s="61"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C25" s="2"/>
-      <c r="D25" s="60"/>
+      <c r="D25" s="61"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C26" s="2"/>
-      <c r="D26" s="60"/>
+      <c r="D26" s="61"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C27" s="2"/>
-      <c r="D27" s="60"/>
+      <c r="D27" s="61"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C28" s="2"/>
-      <c r="D28" s="60"/>
+      <c r="D28" s="61"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C29" s="2"/>
-      <c r="D29" s="60"/>
+      <c r="D29" s="61"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C30" s="2"/>
-      <c r="D30" s="60"/>
+      <c r="D30" s="61"/>
     </row>
     <row r="31" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C31" s="2"/>
-      <c r="D31" s="61"/>
+      <c r="D31" s="62"/>
     </row>
     <row r="32" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C32" s="2"/>
@@ -5897,51 +5865,51 @@
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C34" s="2"/>
-      <c r="D34" s="59"/>
+      <c r="D34" s="60"/>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C35" s="2"/>
-      <c r="D35" s="60"/>
+      <c r="D35" s="61"/>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C36" s="2"/>
-      <c r="D36" s="60"/>
+      <c r="D36" s="61"/>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C37" s="2"/>
-      <c r="D37" s="60"/>
+      <c r="D37" s="61"/>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C38" s="2"/>
-      <c r="D38" s="60"/>
+      <c r="D38" s="61"/>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C39" s="2"/>
-      <c r="D39" s="60"/>
+      <c r="D39" s="61"/>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C40" s="2"/>
-      <c r="D40" s="60"/>
+      <c r="D40" s="61"/>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C41" s="2"/>
-      <c r="D41" s="60"/>
+      <c r="D41" s="61"/>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C42" s="2"/>
-      <c r="D42" s="60"/>
+      <c r="D42" s="61"/>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C43" s="2"/>
-      <c r="D43" s="60"/>
+      <c r="D43" s="61"/>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C44" s="2"/>
-      <c r="D44" s="60"/>
+      <c r="D44" s="61"/>
     </row>
     <row r="45" spans="3:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C45" s="2"/>
-      <c r="D45" s="61"/>
+      <c r="D45" s="62"/>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C46" s="2"/>
@@ -6107,10 +6075,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FB1296-9714-4476-AF78-ECD0D1895434}">
-  <dimension ref="A2:B30"/>
+  <dimension ref="A2:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6120,136 +6088,127 @@
     <col min="3" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" s="54" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="55" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="53" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="53" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="53" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="53"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
+      <c r="B9" s="55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="53" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="53"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="55" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="53" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="53" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="53" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="53"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="53" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="53"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="55" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="53" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="53" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="53" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="53"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="53" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="53" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="53"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="55" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="53" t="s">
-        <v>99</v>
+    <row r="21" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="B21" s="56" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="53" t="s">
-        <v>66</v>
-      </c>
+      <c r="B22" s="53"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B24" s="71" t="s">
-        <v>112</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B24" s="56" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="53"/>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="53" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B27" s="71" t="s">
-        <v>111</v>
+      <c r="B26" s="54" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="26" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="53"/>
+      <c r="B28" s="26" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6266,7 +6225,7 @@
   </sheetPr>
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -6296,44 +6255,44 @@
     </row>
     <row r="3" spans="2:6" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="32" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="117.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="32" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="163.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="134.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="32" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -6354,36 +6313,36 @@
     </row>
     <row r="8" spans="2:6" ht="109.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="32" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="154.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="131.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="32" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6391,17 +6350,20 @@
         <v>43</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="E10" s="47" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F10" s="48" t="s">
-        <v>88</v>
-      </c>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="72"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C13" s="23"/>
